--- a/plots/ml_description_by_data_type.xlsx
+++ b/plots/ml_description_by_data_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa24jm\Documents\literature_review\plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\literature_review\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CE82B2-D056-438F-A54C-8D32B7AFFE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE6CF84-B4C2-4761-B635-C4D7229A85B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1230" yWindow="-18525" windowWidth="28800" windowHeight="15435" xr2:uid="{F8619ACE-1305-42D3-B30B-A3DB9A5A58A4}"/>
+    <workbookView minimized="1" xWindow="2652" yWindow="1080" windowWidth="23040" windowHeight="12120" xr2:uid="{F8619ACE-1305-42D3-B30B-A3DB9A5A58A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
                     <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -316,7 +316,7 @@
                     <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -432,7 +432,7 @@
                     <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -537,7 +537,7 @@
                 <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2125652192"/>
@@ -604,7 +604,7 @@
                 <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2125651360"/>
@@ -643,7 +643,7 @@
               <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -680,7 +680,7 @@
           <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1589,16 +1589,16 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="131" zoomScaleNormal="109" zoomScaleSheetLayoutView="131" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="78" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>

--- a/plots/ml_description_by_data_type.xlsx
+++ b/plots/ml_description_by_data_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\literature_review\plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa24jm\Documents\literature_review\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE6CF84-B4C2-4761-B635-C4D7229A85B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DECEA7-4A52-4C1B-BD5A-985EBDDD2F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2652" yWindow="1080" windowWidth="23040" windowHeight="12120" xr2:uid="{F8619ACE-1305-42D3-B30B-A3DB9A5A58A4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8619ACE-1305-42D3-B30B-A3DB9A5A58A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -140,10 +140,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="103"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="3"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -170,8 +170,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="65000"/>
+              <a:schemeClr val="accent2">
                 <a:alpha val="70000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -203,7 +202,7 @@
                     <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -284,7 +283,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
+              <a:schemeClr val="accent4">
                 <a:alpha val="70000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -316,7 +315,7 @@
                     <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -397,8 +396,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="65000"/>
+              <a:schemeClr val="accent6">
                 <a:alpha val="70000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -432,7 +430,7 @@
                     <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -537,7 +535,7 @@
                 <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2125652192"/>
@@ -604,7 +602,7 @@
                 <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2125651360"/>
@@ -643,7 +641,7 @@
               <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -680,7 +678,7 @@
           <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -692,8 +690,39 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1592,13 +1621,13 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1610,7 +1639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1653,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="78" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>

--- a/plots/ml_description_by_data_type.xlsx
+++ b/plots/ml_description_by_data_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa24jm\Documents\literature_review\plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\literature_review\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DECEA7-4A52-4C1B-BD5A-985EBDDD2F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C4E00-345C-4F71-A759-C87C20A9F695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8619ACE-1305-42D3-B30B-A3DB9A5A58A4}"/>
+    <workbookView xWindow="38280" yWindow="2235" windowWidth="29040" windowHeight="15720" xr2:uid="{F8619ACE-1305-42D3-B30B-A3DB9A5A58A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -122,6 +122,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4472C4"/>
+      <color rgb="FF8FAADC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -140,10 +146,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -170,7 +176,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
                 <a:alpha val="70000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -202,7 +210,7 @@
                     <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -283,9 +291,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:alpha val="70000"/>
-              </a:schemeClr>
+              <a:srgbClr val="8FAADC">
+                <a:alpha val="69804"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -315,7 +323,7 @@
                     <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -396,9 +404,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:alpha val="70000"/>
-              </a:schemeClr>
+              <a:srgbClr val="4472C4">
+                <a:alpha val="69804"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -430,7 +438,7 @@
                     <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -535,7 +543,7 @@
                 <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2125652192"/>
@@ -552,31 +560,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="5000"/>
-                      <a:lumOff val="95000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="15000"/>
-                      <a:lumOff val="85000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -602,7 +585,7 @@
                 <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2125651360"/>
@@ -618,7 +601,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -641,7 +624,7 @@
               <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -678,7 +661,7 @@
           <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -690,39 +673,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
 </cs:colorStyle>
 </file>
 
@@ -1618,16 +1570,16 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="131" zoomScaleNormal="109" zoomScaleSheetLayoutView="131" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1639,7 +1591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +1605,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="78" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
